--- a/Code/Results/Cases/Case_0_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_218/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03386579335884932</v>
+        <v>0.01211971538532453</v>
       </c>
       <c r="D2">
-        <v>0.01988605340860161</v>
+        <v>0.01707208025167617</v>
       </c>
       <c r="E2">
-        <v>0.1877027719036946</v>
+        <v>0.1005247122900812</v>
       </c>
       <c r="F2">
-        <v>0.8136577132426908</v>
+        <v>0.7921481765657319</v>
       </c>
       <c r="G2">
-        <v>0.7378398721176751</v>
+        <v>0.6420672401678331</v>
       </c>
       <c r="H2">
-        <v>0.450455775499762</v>
+        <v>0.7124296235065373</v>
       </c>
       <c r="I2">
-        <v>0.5975401630626109</v>
+        <v>0.5955098145560314</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.158955351256452</v>
+        <v>1.018700704066106</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9998391321679563</v>
+        <v>0.3622971501789465</v>
       </c>
       <c r="N2">
-        <v>0.5869176397641453</v>
+        <v>1.122057150459391</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02989114958056405</v>
+        <v>0.01081830537506789</v>
       </c>
       <c r="D3">
-        <v>0.0188860766976795</v>
+        <v>0.01667546020302169</v>
       </c>
       <c r="E3">
-        <v>0.1634399723414788</v>
+        <v>0.09510043081046859</v>
       </c>
       <c r="F3">
-        <v>0.7327202164672144</v>
+        <v>0.7789089341877826</v>
       </c>
       <c r="G3">
-        <v>0.6613138051937426</v>
+        <v>0.6291456830562083</v>
       </c>
       <c r="H3">
-        <v>0.4224583693900286</v>
+        <v>0.7117507354775512</v>
       </c>
       <c r="I3">
-        <v>0.5392002714977693</v>
+        <v>0.5863354090676012</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.740472491847328</v>
+        <v>0.8960080471348704</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8642779060450394</v>
+        <v>0.3250381352683789</v>
       </c>
       <c r="N3">
-        <v>0.6240022949592614</v>
+        <v>1.136711964987771</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02744914673777288</v>
+        <v>0.01001426740725719</v>
       </c>
       <c r="D4">
-        <v>0.01827408162852606</v>
+        <v>0.01643156810214563</v>
       </c>
       <c r="E4">
-        <v>0.1489712713234965</v>
+        <v>0.09185761988449315</v>
       </c>
       <c r="F4">
-        <v>0.6849104722269459</v>
+        <v>0.7714106329806896</v>
       </c>
       <c r="G4">
-        <v>0.6162536422050806</v>
+        <v>0.6217884110759968</v>
       </c>
       <c r="H4">
-        <v>0.4063644452120201</v>
+        <v>0.7117919919531204</v>
       </c>
       <c r="I4">
-        <v>0.5048093845957524</v>
+        <v>0.5811799721503377</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.484784278541156</v>
+        <v>0.8206849915816008</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7819129399998488</v>
+        <v>0.3022746997523811</v>
       </c>
       <c r="N4">
-        <v>0.647937925648332</v>
+        <v>1.146212808615154</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02645327329946667</v>
+        <v>0.009685380221391426</v>
       </c>
       <c r="D5">
-        <v>0.0180250758711793</v>
+        <v>0.01633209899051025</v>
       </c>
       <c r="E5">
-        <v>0.1431709307337137</v>
+        <v>0.09055794972849895</v>
       </c>
       <c r="F5">
-        <v>0.6658615192888462</v>
+        <v>0.7685130055463034</v>
       </c>
       <c r="G5">
-        <v>0.5983330640736142</v>
+        <v>0.6189345023970816</v>
       </c>
       <c r="H5">
-        <v>0.4000620977731302</v>
+        <v>0.7119237628841688</v>
       </c>
       <c r="I5">
-        <v>0.4911239458738592</v>
+        <v>0.5791987481297625</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.380840027609167</v>
+        <v>0.7899935067034107</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7485348479691609</v>
+        <v>0.2930267870296959</v>
       </c>
       <c r="N5">
-        <v>0.6579741530753225</v>
+        <v>1.150210805081191</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02628785507742748</v>
+        <v>0.009630694561288067</v>
       </c>
       <c r="D6">
-        <v>0.01798374902647737</v>
+        <v>0.01631557764664748</v>
       </c>
       <c r="E6">
-        <v>0.1422132372802558</v>
+        <v>0.09034344978485009</v>
       </c>
       <c r="F6">
-        <v>0.6627235299864296</v>
+        <v>0.76804138178926</v>
       </c>
       <c r="G6">
-        <v>0.595382850840565</v>
+        <v>0.6184693026840762</v>
       </c>
       <c r="H6">
-        <v>0.3990305115246855</v>
+        <v>0.7119525797711788</v>
       </c>
       <c r="I6">
-        <v>0.4888705139522287</v>
+        <v>0.5788769810643473</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.363593452133188</v>
+        <v>0.7848974238606843</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7430027856332941</v>
+        <v>0.2914928851329535</v>
       </c>
       <c r="N6">
-        <v>0.6596574068087406</v>
+        <v>1.150882296588208</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0274357194660837</v>
+        <v>0.01000983690285295</v>
       </c>
       <c r="D7">
-        <v>0.01827072202076607</v>
+        <v>0.0164302269407024</v>
       </c>
       <c r="E7">
-        <v>0.1488926734112823</v>
+        <v>0.09184000414175131</v>
       </c>
       <c r="F7">
-        <v>0.6846518660231595</v>
+        <v>0.771370915647708</v>
       </c>
       <c r="G7">
-        <v>0.6160102247189059</v>
+        <v>0.6217493392475859</v>
       </c>
       <c r="H7">
-        <v>0.406278437876324</v>
+        <v>0.7117933039124011</v>
       </c>
       <c r="I7">
-        <v>0.5046235242039856</v>
+        <v>0.5811527687885274</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.4833815192722</v>
+        <v>0.8202710614646946</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7814620783869586</v>
+        <v>0.3021498645907457</v>
       </c>
       <c r="N7">
-        <v>0.6480721485941459</v>
+        <v>1.146266215627218</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03249544176031804</v>
+        <v>0.01167202797388711</v>
       </c>
       <c r="D8">
-        <v>0.01954077273354216</v>
+        <v>0.01693540791134751</v>
       </c>
       <c r="E8">
-        <v>0.179240440506959</v>
+        <v>0.09863605748046211</v>
       </c>
       <c r="F8">
-        <v>0.7853338223010695</v>
+        <v>0.7874520328505952</v>
       </c>
       <c r="G8">
-        <v>0.7110270448484926</v>
+        <v>0.6374917496146963</v>
       </c>
       <c r="H8">
-        <v>0.4405624039275438</v>
+        <v>0.7121003216904143</v>
       </c>
       <c r="I8">
-        <v>0.5771087841839488</v>
+        <v>0.5922470544803176</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.01435889666854</v>
+        <v>0.9763943517736777</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9528966909974912</v>
+        <v>0.3494264810842225</v>
       </c>
       <c r="N8">
-        <v>0.5994557962314175</v>
+        <v>1.127005735332283</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04242257422238538</v>
+        <v>0.01489171552979229</v>
       </c>
       <c r="D9">
-        <v>0.02205345162408179</v>
+        <v>0.01792274394554738</v>
       </c>
       <c r="E9">
-        <v>0.2427478076829672</v>
+        <v>0.1126714482458411</v>
       </c>
       <c r="F9">
-        <v>0.9997088348327594</v>
+        <v>0.8240204585298301</v>
       </c>
       <c r="G9">
-        <v>0.9147351058881554</v>
+        <v>0.6729744145181087</v>
       </c>
       <c r="H9">
-        <v>0.5174554549396788</v>
+        <v>0.7163488456749718</v>
       </c>
       <c r="I9">
-        <v>0.7320863533787261</v>
+        <v>0.6178159261746856</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.068917581797166</v>
+        <v>1.282627414910678</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.297589106731792</v>
+        <v>0.4430537523078755</v>
       </c>
       <c r="N9">
-        <v>0.5138911893912415</v>
+        <v>1.093228640919374</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04974602855099874</v>
+        <v>0.01723253336157171</v>
       </c>
       <c r="D10">
-        <v>0.02392365072041258</v>
+        <v>0.01864563538246955</v>
       </c>
       <c r="E10">
-        <v>0.2927534522204596</v>
+        <v>0.1234332704963492</v>
       </c>
       <c r="F10">
-        <v>1.170527950019405</v>
+        <v>0.8540007717681277</v>
       </c>
       <c r="G10">
-        <v>1.078166689979525</v>
+        <v>0.7019094852435757</v>
       </c>
       <c r="H10">
-        <v>0.5812985665137944</v>
+        <v>0.7217110258773403</v>
       </c>
       <c r="I10">
-        <v>0.8560299657031294</v>
+        <v>0.6389604283844719</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.85689650982863</v>
+        <v>1.50767379723311</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.558485614709511</v>
+        <v>0.5124298405144145</v>
       </c>
       <c r="N10">
-        <v>0.4577742975972114</v>
+        <v>1.070851341865232</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0530908166914088</v>
+        <v>0.01829200534367459</v>
       </c>
       <c r="D11">
-        <v>0.02478263766395372</v>
+        <v>0.01897386116064581</v>
       </c>
       <c r="E11">
-        <v>0.3164578071211395</v>
+        <v>0.1284308254929769</v>
       </c>
       <c r="F11">
-        <v>1.25186890010491</v>
+        <v>0.8683256343925905</v>
       </c>
       <c r="G11">
-        <v>1.156290035149027</v>
+        <v>0.7157070944033421</v>
       </c>
       <c r="H11">
-        <v>0.6122996046069602</v>
+        <v>0.7246409625242336</v>
       </c>
       <c r="I11">
-        <v>0.9151622365378103</v>
+        <v>0.6490995033004765</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.219495796240608</v>
+        <v>1.61006950256666</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.679449727288002</v>
+        <v>0.5441251498361197</v>
       </c>
       <c r="N11">
-        <v>0.4339060769164256</v>
+        <v>1.061201992640001</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05435991296047149</v>
+        <v>0.01869241596086368</v>
       </c>
       <c r="D12">
-        <v>0.0251093886283229</v>
+        <v>0.01909805345756155</v>
       </c>
       <c r="E12">
-        <v>0.325593071810097</v>
+        <v>0.1303382333213108</v>
       </c>
       <c r="F12">
-        <v>1.28326165175821</v>
+        <v>0.8738495566873894</v>
       </c>
       <c r="G12">
-        <v>1.186489298632665</v>
+        <v>0.7210240858241264</v>
       </c>
       <c r="H12">
-        <v>0.6243540577758324</v>
+        <v>0.7258213061034837</v>
       </c>
       <c r="I12">
-        <v>0.9380011858018378</v>
+        <v>0.6530142930409824</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.357514589094876</v>
+        <v>1.648846920119638</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.725640678485789</v>
+        <v>0.5561472483725396</v>
       </c>
       <c r="N12">
-        <v>0.425124821294169</v>
+        <v>1.057624407234115</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05408646940163209</v>
+        <v>0.0186062156754474</v>
       </c>
       <c r="D13">
-        <v>0.02503894642519811</v>
+        <v>0.01907131101969739</v>
       </c>
       <c r="E13">
-        <v>0.3236181938472811</v>
+        <v>0.1299267698433937</v>
       </c>
       <c r="F13">
-        <v>1.276473232405223</v>
+        <v>0.8726554493662775</v>
       </c>
       <c r="G13">
-        <v>1.179956733326293</v>
+        <v>0.7198748654174381</v>
       </c>
       <c r="H13">
-        <v>0.621743336088656</v>
+        <v>0.7255639427991412</v>
       </c>
       <c r="I13">
-        <v>0.933061661372804</v>
+        <v>0.6521678138798421</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.327756231893318</v>
+        <v>1.64049541321549</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.715674567743989</v>
+        <v>0.553557190953498</v>
       </c>
       <c r="N13">
-        <v>0.4270042725309011</v>
+        <v>1.05839150292671</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05319517240911154</v>
+        <v>0.01832496325382493</v>
       </c>
       <c r="D14">
-        <v>0.0248094883551282</v>
+        <v>0.01898408059126666</v>
       </c>
       <c r="E14">
-        <v>0.3172060543855224</v>
+        <v>0.1285874479949456</v>
       </c>
       <c r="F14">
-        <v>1.254439347999465</v>
+        <v>0.8687780947017814</v>
       </c>
       <c r="G14">
-        <v>1.15876176708295</v>
+        <v>0.7161426751258375</v>
       </c>
       <c r="H14">
-        <v>0.6132848145674075</v>
+        <v>0.7247366487198406</v>
       </c>
       <c r="I14">
-        <v>0.9170319421844368</v>
+        <v>0.6494200624612034</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.230835751994789</v>
+        <v>1.613259699791286</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.683241834507243</v>
+        <v>0.5451138174054222</v>
       </c>
       <c r="N14">
-        <v>0.4331783723222742</v>
+        <v>1.060906130081101</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05264957078896515</v>
+        <v>0.0181525849023032</v>
       </c>
       <c r="D15">
-        <v>0.02466913962945583</v>
+        <v>0.01893063615109014</v>
       </c>
       <c r="E15">
-        <v>0.3132998080287877</v>
+        <v>0.1277690290183884</v>
       </c>
       <c r="F15">
-        <v>1.241022020054444</v>
+        <v>0.8664160686413283</v>
       </c>
       <c r="G15">
-        <v>1.145861688721027</v>
+        <v>0.7138686246074997</v>
       </c>
       <c r="H15">
-        <v>0.6081458015304122</v>
+        <v>0.7242391411784865</v>
       </c>
       <c r="I15">
-        <v>0.9072730828721802</v>
+        <v>0.6477468125780774</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.171565260656621</v>
+        <v>1.596577331154435</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.663427695724977</v>
+        <v>0.5399445897463835</v>
       </c>
       <c r="N15">
-        <v>0.4369942507985058</v>
+        <v>1.062456368367599</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04952775526778908</v>
+        <v>0.01716318486687385</v>
       </c>
       <c r="D16">
-        <v>0.02386770302111074</v>
+        <v>0.01862417166515939</v>
       </c>
       <c r="E16">
-        <v>0.2912253401926961</v>
+        <v>0.1231087440573546</v>
       </c>
       <c r="F16">
-        <v>1.165290929269219</v>
+        <v>0.8530784826557039</v>
       </c>
       <c r="G16">
-        <v>1.073143188342385</v>
+        <v>0.701020626448468</v>
       </c>
       <c r="H16">
-        <v>0.5793147655992641</v>
+        <v>0.7215294451235934</v>
       </c>
       <c r="I16">
-        <v>0.852225145617048</v>
+        <v>0.6383083307368338</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.833292696381307</v>
+        <v>1.500982365048969</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.550630917746446</v>
+        <v>0.5103612308181766</v>
       </c>
       <c r="N16">
-        <v>0.4593690759500042</v>
+        <v>1.071492632996211</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0476164300426376</v>
+        <v>0.01655483182216244</v>
       </c>
       <c r="D17">
-        <v>0.02337834512252712</v>
+        <v>0.01843599908247739</v>
       </c>
       <c r="E17">
-        <v>0.2779428553255769</v>
+        <v>0.1202761216803268</v>
       </c>
       <c r="F17">
-        <v>1.119809591937539</v>
+        <v>0.8450726504679125</v>
       </c>
       <c r="G17">
-        <v>1.029549569918515</v>
+        <v>0.6933020044620122</v>
       </c>
       <c r="H17">
-        <v>0.5621522120045483</v>
+        <v>0.7199930044569243</v>
       </c>
       <c r="I17">
-        <v>0.8191943094078908</v>
+        <v>0.6326517663075677</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.626912579969712</v>
+        <v>1.44234287029866</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.482056313029616</v>
+        <v>0.4922477495107387</v>
       </c>
       <c r="N17">
-        <v>0.4735329615090826</v>
+        <v>1.07717200500672</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04651830125114031</v>
+        <v>0.01620441795366645</v>
       </c>
       <c r="D18">
-        <v>0.02309763362146811</v>
+        <v>0.01832770932508154</v>
       </c>
       <c r="E18">
-        <v>0.2703917429501388</v>
+        <v>0.1186564510547967</v>
       </c>
       <c r="F18">
-        <v>1.093987572003925</v>
+        <v>0.8405324999634729</v>
       </c>
       <c r="G18">
-        <v>1.004826486928977</v>
+        <v>0.6889221667496486</v>
       </c>
       <c r="H18">
-        <v>0.5524629199600923</v>
+        <v>0.7191554499124635</v>
       </c>
       <c r="I18">
-        <v>0.800451295354911</v>
+        <v>0.6294472052726618</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.508590714963645</v>
+        <v>1.408616995314503</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.442824999019848</v>
+        <v>0.4818421192007349</v>
       </c>
       <c r="N18">
-        <v>0.4818346591594853</v>
+        <v>1.080488523419188</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04614668548833833</v>
+        <v>0.0160856875173323</v>
       </c>
       <c r="D19">
-        <v>0.02300271101322693</v>
+        <v>0.01829103465495052</v>
       </c>
       <c r="E19">
-        <v>0.2678496728038056</v>
+        <v>0.1181096950196832</v>
       </c>
       <c r="F19">
-        <v>1.085300703797742</v>
+        <v>0.8390063565943535</v>
       </c>
       <c r="G19">
-        <v>0.9965138366269457</v>
+        <v>0.6874494586313062</v>
       </c>
       <c r="H19">
-        <v>0.5492126130821902</v>
+        <v>0.7188797886720124</v>
       </c>
       <c r="I19">
-        <v>0.7941476208528329</v>
+        <v>0.6283705865973417</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.468591361879703</v>
+        <v>1.397198358392927</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.429576561307314</v>
+        <v>0.4783211364974278</v>
       </c>
       <c r="N19">
-        <v>0.4846715598717246</v>
+        <v>1.081620003758239</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04781976408473554</v>
+        <v>0.01661964444728881</v>
       </c>
       <c r="D20">
-        <v>0.02343035810266514</v>
+        <v>0.01845603643954874</v>
       </c>
       <c r="E20">
-        <v>0.2793474790098784</v>
+        <v>0.1205766657572482</v>
       </c>
       <c r="F20">
-        <v>1.124615741425998</v>
+        <v>0.8459181950818504</v>
       </c>
       <c r="G20">
-        <v>1.034153375227106</v>
+        <v>0.6941174791745794</v>
       </c>
       <c r="H20">
-        <v>0.5639601113814763</v>
+        <v>0.7201517811738682</v>
       </c>
       <c r="I20">
-        <v>0.8226837037905526</v>
+        <v>0.6332488478500053</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.648841714126775</v>
+        <v>1.448584941052445</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.489333970318853</v>
+        <v>0.4941746376054681</v>
       </c>
       <c r="N20">
-        <v>0.4720090211840393</v>
+        <v>1.076562261102577</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05345689523019814</v>
+        <v>0.01840759542514547</v>
       </c>
       <c r="D21">
-        <v>0.02487684328864148</v>
+        <v>0.01900970506914135</v>
       </c>
       <c r="E21">
-        <v>0.3190849592070748</v>
+        <v>0.1289804315009349</v>
       </c>
       <c r="F21">
-        <v>1.260894626197071</v>
+        <v>0.869914264537428</v>
       </c>
       <c r="G21">
-        <v>1.164969920061452</v>
+        <v>0.7172364026339721</v>
       </c>
       <c r="H21">
-        <v>0.6157604543947457</v>
+        <v>0.7249777201820962</v>
       </c>
       <c r="I21">
-        <v>0.9217276964557044</v>
+        <v>0.6502250947505956</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.259283397797901</v>
+        <v>1.6212594292316</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.692757200247996</v>
+        <v>0.5475933022608785</v>
       </c>
       <c r="N21">
-        <v>0.4313577550629297</v>
+        <v>1.060165447877914</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05715595622115188</v>
+        <v>0.019571522251006</v>
       </c>
       <c r="D22">
-        <v>0.02583094972536415</v>
+        <v>0.01937097388215037</v>
       </c>
       <c r="E22">
-        <v>0.3459938371412292</v>
+        <v>0.1345600053021769</v>
       </c>
       <c r="F22">
-        <v>1.353440459552033</v>
+        <v>0.8861768184587646</v>
       </c>
       <c r="G22">
-        <v>1.254093642312483</v>
+        <v>0.7328833877236605</v>
       </c>
       <c r="H22">
-        <v>0.6514692497426893</v>
+        <v>0.7285447947961359</v>
       </c>
       <c r="I22">
-        <v>0.989090925141241</v>
+        <v>0.661759447410077</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.662444459302378</v>
+        <v>1.734125813779826</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.82797768384485</v>
+        <v>0.5826208568593074</v>
       </c>
       <c r="N22">
-        <v>0.4062984325017567</v>
+        <v>1.049894664923542</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05518012952941831</v>
+        <v>0.01895073868854524</v>
       </c>
       <c r="D23">
-        <v>0.02532081701625799</v>
+        <v>0.01917821486014049</v>
       </c>
       <c r="E23">
-        <v>0.3315385136998117</v>
+        <v>0.1315740066919702</v>
       </c>
       <c r="F23">
-        <v>1.303704301885517</v>
+        <v>0.8774439207829658</v>
       </c>
       <c r="G23">
-        <v>1.206168814679216</v>
+        <v>0.7244828443732558</v>
       </c>
       <c r="H23">
-        <v>0.6322291837084322</v>
+        <v>0.7266030916571822</v>
       </c>
       <c r="I23">
-        <v>0.9528786723732168</v>
+        <v>0.6555629697547118</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.446844347862793</v>
+        <v>1.673885858761196</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.755579848575749</v>
+        <v>0.5639153523312643</v>
       </c>
       <c r="N23">
-        <v>0.4195284343280505</v>
+        <v>1.055335554800109</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0477278345729033</v>
+        <v>0.01659034472610443</v>
       </c>
       <c r="D24">
-        <v>0.02340684110285807</v>
+        <v>0.01844697788203931</v>
       </c>
       <c r="E24">
-        <v>0.2787121849587706</v>
+        <v>0.120440762263172</v>
       </c>
       <c r="F24">
-        <v>1.122441871488363</v>
+        <v>0.8455357296955555</v>
       </c>
       <c r="G24">
-        <v>1.032070942863285</v>
+        <v>0.6937486233830725</v>
       </c>
       <c r="H24">
-        <v>0.5631422090962843</v>
+        <v>0.7200798556753085</v>
       </c>
       <c r="I24">
-        <v>0.8211053835207167</v>
+        <v>0.632978759444029</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.638926536899078</v>
+        <v>1.445762942095371</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.486043144064325</v>
+        <v>0.4933034664454539</v>
       </c>
       <c r="N24">
-        <v>0.4726975016916946</v>
+        <v>1.076837766302713</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03973384183056794</v>
+        <v>0.01402501266855438</v>
       </c>
       <c r="D25">
-        <v>0.02137034306581853</v>
+        <v>0.01765604955195244</v>
       </c>
       <c r="E25">
-        <v>0.2250509469685369</v>
+        <v>0.1087967959380975</v>
       </c>
       <c r="F25">
-        <v>0.939608230163401</v>
+        <v>0.8135842302260841</v>
       </c>
       <c r="G25">
-        <v>0.8574554127898608</v>
+        <v>0.6628760666404503</v>
       </c>
       <c r="H25">
-        <v>0.495476561012012</v>
+        <v>0.7148072963177015</v>
       </c>
       <c r="I25">
-        <v>0.6885656848612243</v>
+        <v>0.6104870984831479</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.781709531025683</v>
+        <v>1.199774077250026</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.203189109441396</v>
+        <v>0.4176238886613532</v>
       </c>
       <c r="N25">
-        <v>0.5359152887847713</v>
+        <v>1.101938339040213</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_218/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01211971538532453</v>
+        <v>0.03386579335860063</v>
       </c>
       <c r="D2">
-        <v>0.01707208025167617</v>
+        <v>0.01988605340859451</v>
       </c>
       <c r="E2">
-        <v>0.1005247122900812</v>
+        <v>0.1877027719036874</v>
       </c>
       <c r="F2">
-        <v>0.7921481765657319</v>
+        <v>0.813657713242705</v>
       </c>
       <c r="G2">
-        <v>0.6420672401678331</v>
+        <v>0.7378398721176467</v>
       </c>
       <c r="H2">
-        <v>0.7124296235065373</v>
+        <v>0.4504557754996341</v>
       </c>
       <c r="I2">
-        <v>0.5955098145560314</v>
+        <v>0.5975401630626038</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.018700704066106</v>
+        <v>3.158955351256367</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3622971501789465</v>
+        <v>0.9998391321679563</v>
       </c>
       <c r="N2">
-        <v>1.122057150459391</v>
+        <v>0.586917639764124</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01081830537506789</v>
+        <v>0.02989114958069194</v>
       </c>
       <c r="D3">
-        <v>0.01667546020302169</v>
+        <v>0.01888607669768305</v>
       </c>
       <c r="E3">
-        <v>0.09510043081046859</v>
+        <v>0.1634399723414433</v>
       </c>
       <c r="F3">
-        <v>0.7789089341877826</v>
+        <v>0.732720216467186</v>
       </c>
       <c r="G3">
-        <v>0.6291456830562083</v>
+        <v>0.6613138051937995</v>
       </c>
       <c r="H3">
-        <v>0.7117507354775512</v>
+        <v>0.4224583693900428</v>
       </c>
       <c r="I3">
-        <v>0.5863354090676012</v>
+        <v>0.5392002714977551</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8960080471348704</v>
+        <v>2.740472491847385</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3250381352683789</v>
+        <v>0.8642779060450252</v>
       </c>
       <c r="N3">
-        <v>1.136711964987771</v>
+        <v>0.6240022949592543</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01001426740725719</v>
+        <v>0.02744914673765919</v>
       </c>
       <c r="D4">
-        <v>0.01643156810214563</v>
+        <v>0.01827408162840527</v>
       </c>
       <c r="E4">
-        <v>0.09185761988449315</v>
+        <v>0.1489712713235107</v>
       </c>
       <c r="F4">
-        <v>0.7714106329806896</v>
+        <v>0.6849104722269601</v>
       </c>
       <c r="G4">
-        <v>0.6217884110759968</v>
+        <v>0.6162536422051801</v>
       </c>
       <c r="H4">
-        <v>0.7117919919531204</v>
+        <v>0.4063644452120201</v>
       </c>
       <c r="I4">
-        <v>0.5811799721503377</v>
+        <v>0.5048093845957453</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8206849915816008</v>
+        <v>2.484784278541156</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3022746997523811</v>
+        <v>0.7819129399998559</v>
       </c>
       <c r="N4">
-        <v>1.146212808615154</v>
+        <v>0.6479379256483391</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.009685380221391426</v>
+        <v>0.02645327329935299</v>
       </c>
       <c r="D5">
-        <v>0.01633209899051025</v>
+        <v>0.01802507587123259</v>
       </c>
       <c r="E5">
-        <v>0.09055794972849895</v>
+        <v>0.1431709307337101</v>
       </c>
       <c r="F5">
-        <v>0.7685130055463034</v>
+        <v>0.665861519288832</v>
       </c>
       <c r="G5">
-        <v>0.6189345023970816</v>
+        <v>0.5983330640736284</v>
       </c>
       <c r="H5">
-        <v>0.7119237628841688</v>
+        <v>0.4000620977730307</v>
       </c>
       <c r="I5">
-        <v>0.5791987481297625</v>
+        <v>0.4911239458738663</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7899935067034107</v>
+        <v>2.380840027609253</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2930267870296959</v>
+        <v>0.7485348479691751</v>
       </c>
       <c r="N5">
-        <v>1.150210805081191</v>
+        <v>0.6579741530753083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.009630694561288067</v>
+        <v>0.02628785507707931</v>
       </c>
       <c r="D6">
-        <v>0.01631557764664748</v>
+        <v>0.01798374902659461</v>
       </c>
       <c r="E6">
-        <v>0.09034344978485009</v>
+        <v>0.1422132372802238</v>
       </c>
       <c r="F6">
-        <v>0.76804138178926</v>
+        <v>0.6627235299864438</v>
       </c>
       <c r="G6">
-        <v>0.6184693026840762</v>
+        <v>0.5953828508405934</v>
       </c>
       <c r="H6">
-        <v>0.7119525797711788</v>
+        <v>0.3990305115246713</v>
       </c>
       <c r="I6">
-        <v>0.5788769810643473</v>
+        <v>0.4888705139522429</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7848974238606843</v>
+        <v>2.363593452133244</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2914928851329535</v>
+        <v>0.7430027856333083</v>
       </c>
       <c r="N6">
-        <v>1.150882296588208</v>
+        <v>0.6596574068088188</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01000983690285295</v>
+        <v>0.02743571946597001</v>
       </c>
       <c r="D7">
-        <v>0.0164302269407024</v>
+        <v>0.01827072202066304</v>
       </c>
       <c r="E7">
-        <v>0.09184000414175131</v>
+        <v>0.1488926734112965</v>
       </c>
       <c r="F7">
-        <v>0.771370915647708</v>
+        <v>0.6846518660231311</v>
       </c>
       <c r="G7">
-        <v>0.6217493392475859</v>
+        <v>0.6160102247188775</v>
       </c>
       <c r="H7">
-        <v>0.7117933039124011</v>
+        <v>0.406278437876324</v>
       </c>
       <c r="I7">
-        <v>0.5811527687885274</v>
+        <v>0.5046235242040069</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8202710614646946</v>
+        <v>2.483381519272029</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3021498645907457</v>
+        <v>0.7814620783869657</v>
       </c>
       <c r="N7">
-        <v>1.146266215627218</v>
+        <v>0.6480721485941494</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01167202797388711</v>
+        <v>0.03249544176031804</v>
       </c>
       <c r="D8">
-        <v>0.01693540791134751</v>
+        <v>0.01954077273366295</v>
       </c>
       <c r="E8">
-        <v>0.09863605748046211</v>
+        <v>0.179240440506959</v>
       </c>
       <c r="F8">
-        <v>0.7874520328505952</v>
+        <v>0.7853338223010553</v>
       </c>
       <c r="G8">
-        <v>0.6374917496146963</v>
+        <v>0.7110270448485068</v>
       </c>
       <c r="H8">
-        <v>0.7121003216904143</v>
+        <v>0.4405624039274016</v>
       </c>
       <c r="I8">
-        <v>0.5922470544803176</v>
+        <v>0.5771087841839204</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9763943517736777</v>
+        <v>3.014358896668483</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3494264810842225</v>
+        <v>0.9528966909974841</v>
       </c>
       <c r="N8">
-        <v>1.127005735332283</v>
+        <v>0.5994557962313536</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01489171552979229</v>
+        <v>0.04242257422212248</v>
       </c>
       <c r="D9">
-        <v>0.01792274394554738</v>
+        <v>0.02205345162407113</v>
       </c>
       <c r="E9">
-        <v>0.1126714482458411</v>
+        <v>0.2427478076829601</v>
       </c>
       <c r="F9">
-        <v>0.8240204585298301</v>
+        <v>0.9997088348327452</v>
       </c>
       <c r="G9">
-        <v>0.6729744145181087</v>
+        <v>0.9147351058881412</v>
       </c>
       <c r="H9">
-        <v>0.7163488456749718</v>
+        <v>0.5174554549396788</v>
       </c>
       <c r="I9">
-        <v>0.6178159261746856</v>
+        <v>0.7320863533787261</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.282627414910678</v>
+        <v>4.068917581797223</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4430537523078755</v>
+        <v>1.297589106731792</v>
       </c>
       <c r="N9">
-        <v>1.093228640919374</v>
+        <v>0.5138911893912876</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01723253336157171</v>
+        <v>0.04974602855100585</v>
       </c>
       <c r="D10">
-        <v>0.01864563538246955</v>
+        <v>0.02392365072040903</v>
       </c>
       <c r="E10">
-        <v>0.1234332704963492</v>
+        <v>0.2927534522204311</v>
       </c>
       <c r="F10">
-        <v>0.8540007717681277</v>
+        <v>1.170527950019419</v>
       </c>
       <c r="G10">
-        <v>0.7019094852435757</v>
+        <v>1.078166689979554</v>
       </c>
       <c r="H10">
-        <v>0.7217110258773403</v>
+        <v>0.5812985665137091</v>
       </c>
       <c r="I10">
-        <v>0.6389604283844719</v>
+        <v>0.8560299657031294</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.50767379723311</v>
+        <v>4.85689650982863</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5124298405144145</v>
+        <v>1.558485614709468</v>
       </c>
       <c r="N10">
-        <v>1.070851341865232</v>
+        <v>0.4577742975972683</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01829200534367459</v>
+        <v>0.0530908166914088</v>
       </c>
       <c r="D11">
-        <v>0.01897386116064581</v>
+        <v>0.02478263766410649</v>
       </c>
       <c r="E11">
-        <v>0.1284308254929769</v>
+        <v>0.3164578071211182</v>
       </c>
       <c r="F11">
-        <v>0.8683256343925905</v>
+        <v>1.25186890010491</v>
       </c>
       <c r="G11">
-        <v>0.7157070944033421</v>
+        <v>1.156290035149027</v>
       </c>
       <c r="H11">
-        <v>0.7246409625242336</v>
+        <v>0.6122996046069602</v>
       </c>
       <c r="I11">
-        <v>0.6490995033004765</v>
+        <v>0.9151622365378245</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.61006950256666</v>
+        <v>5.219495796240551</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5441251498361197</v>
+        <v>1.679449727288016</v>
       </c>
       <c r="N11">
-        <v>1.061201992640001</v>
+        <v>0.433906076916351</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01869241596086368</v>
+        <v>0.05435991296072729</v>
       </c>
       <c r="D12">
-        <v>0.01909805345756155</v>
+        <v>0.02510938862855028</v>
       </c>
       <c r="E12">
-        <v>0.1303382333213108</v>
+        <v>0.3255930718100899</v>
       </c>
       <c r="F12">
-        <v>0.8738495566873894</v>
+        <v>1.283261651758195</v>
       </c>
       <c r="G12">
-        <v>0.7210240858241264</v>
+        <v>1.186489298632637</v>
       </c>
       <c r="H12">
-        <v>0.7258213061034837</v>
+        <v>0.6243540577757472</v>
       </c>
       <c r="I12">
-        <v>0.6530142930409824</v>
+        <v>0.9380011858018378</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.648846920119638</v>
+        <v>5.357514589094706</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5561472483725396</v>
+        <v>1.725640678485775</v>
       </c>
       <c r="N12">
-        <v>1.057624407234115</v>
+        <v>0.4251248212941761</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0186062156754474</v>
+        <v>0.05408646940148287</v>
       </c>
       <c r="D13">
-        <v>0.01907131101969739</v>
+        <v>0.02503894642520521</v>
       </c>
       <c r="E13">
-        <v>0.1299267698433937</v>
+        <v>0.3236181938472527</v>
       </c>
       <c r="F13">
-        <v>0.8726554493662775</v>
+        <v>1.276473232405252</v>
       </c>
       <c r="G13">
-        <v>0.7198748654174381</v>
+        <v>1.179956733326208</v>
       </c>
       <c r="H13">
-        <v>0.7255639427991412</v>
+        <v>0.621743336088656</v>
       </c>
       <c r="I13">
-        <v>0.6521678138798421</v>
+        <v>0.9330616613727898</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.64049541321549</v>
+        <v>5.327756231893147</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.553557190953498</v>
+        <v>1.715674567743989</v>
       </c>
       <c r="N13">
-        <v>1.05839150292671</v>
+        <v>0.4270042725309011</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01832496325382493</v>
+        <v>0.05319517240916127</v>
       </c>
       <c r="D14">
-        <v>0.01898408059126666</v>
+        <v>0.02480948835542662</v>
       </c>
       <c r="E14">
-        <v>0.1285874479949456</v>
+        <v>0.3172060543855224</v>
       </c>
       <c r="F14">
-        <v>0.8687780947017814</v>
+        <v>1.254439347999465</v>
       </c>
       <c r="G14">
-        <v>0.7161426751258375</v>
+        <v>1.158761767083035</v>
       </c>
       <c r="H14">
-        <v>0.7247366487198406</v>
+        <v>0.6132848145672654</v>
       </c>
       <c r="I14">
-        <v>0.6494200624612034</v>
+        <v>0.9170319421844368</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.613259699791286</v>
+        <v>5.230835751994846</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5451138174054222</v>
+        <v>1.683241834507228</v>
       </c>
       <c r="N14">
-        <v>1.060906130081101</v>
+        <v>0.4331783723222813</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0181525849023032</v>
+        <v>0.05264957078912857</v>
       </c>
       <c r="D15">
-        <v>0.01893063615109014</v>
+        <v>0.02466913962971873</v>
       </c>
       <c r="E15">
-        <v>0.1277690290183884</v>
+        <v>0.3132998080287877</v>
       </c>
       <c r="F15">
-        <v>0.8664160686413283</v>
+        <v>1.241022020054459</v>
       </c>
       <c r="G15">
-        <v>0.7138686246074997</v>
+        <v>1.145861688720998</v>
       </c>
       <c r="H15">
-        <v>0.7242391411784865</v>
+        <v>0.6081458015302701</v>
       </c>
       <c r="I15">
-        <v>0.6477468125780774</v>
+        <v>0.9072730828721944</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.596577331154435</v>
+        <v>5.171565260656621</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5399445897463835</v>
+        <v>1.663427695724977</v>
       </c>
       <c r="N15">
-        <v>1.062456368367599</v>
+        <v>0.4369942507985591</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01716318486687385</v>
+        <v>0.04952775526751907</v>
       </c>
       <c r="D16">
-        <v>0.01862417166515939</v>
+        <v>0.02386770302103614</v>
       </c>
       <c r="E16">
-        <v>0.1231087440573546</v>
+        <v>0.2912253401926748</v>
       </c>
       <c r="F16">
-        <v>0.8530784826557039</v>
+        <v>1.165290929269233</v>
       </c>
       <c r="G16">
-        <v>0.701020626448468</v>
+        <v>1.073143188342442</v>
       </c>
       <c r="H16">
-        <v>0.7215294451235934</v>
+        <v>0.5793147655992641</v>
       </c>
       <c r="I16">
-        <v>0.6383083307368338</v>
+        <v>0.852225145617048</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.500982365048969</v>
+        <v>4.83329269638125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5103612308181766</v>
+        <v>1.550630917746446</v>
       </c>
       <c r="N16">
-        <v>1.071492632996211</v>
+        <v>0.45936907594999</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01655483182216244</v>
+        <v>0.04761643004275129</v>
       </c>
       <c r="D17">
-        <v>0.01843599908247739</v>
+        <v>0.02337834512252712</v>
       </c>
       <c r="E17">
-        <v>0.1202761216803268</v>
+        <v>0.2779428553255983</v>
       </c>
       <c r="F17">
-        <v>0.8450726504679125</v>
+        <v>1.119809591937539</v>
       </c>
       <c r="G17">
-        <v>0.6933020044620122</v>
+        <v>1.029549569918501</v>
       </c>
       <c r="H17">
-        <v>0.7199930044569243</v>
+        <v>0.5621522120044204</v>
       </c>
       <c r="I17">
-        <v>0.6326517663075677</v>
+        <v>0.8191943094078908</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.44234287029866</v>
+        <v>4.626912579969655</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4922477495107387</v>
+        <v>1.482056313029645</v>
       </c>
       <c r="N17">
-        <v>1.07717200500672</v>
+        <v>0.4735329615090826</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01620441795366645</v>
+        <v>0.04651830125127532</v>
       </c>
       <c r="D18">
-        <v>0.01832770932508154</v>
+        <v>0.02309763362149297</v>
       </c>
       <c r="E18">
-        <v>0.1186564510547967</v>
+        <v>0.270391742950153</v>
       </c>
       <c r="F18">
-        <v>0.8405324999634729</v>
+        <v>1.093987572003954</v>
       </c>
       <c r="G18">
-        <v>0.6889221667496486</v>
+        <v>1.004826486928934</v>
       </c>
       <c r="H18">
-        <v>0.7191554499124635</v>
+        <v>0.5524629199599786</v>
       </c>
       <c r="I18">
-        <v>0.6294472052726618</v>
+        <v>0.800451295354911</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.408616995314503</v>
+        <v>4.508590714963702</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4818421192007349</v>
+        <v>1.442824999019905</v>
       </c>
       <c r="N18">
-        <v>1.080488523419188</v>
+        <v>0.4818346591595315</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0160856875173323</v>
+        <v>0.04614668548845202</v>
       </c>
       <c r="D19">
-        <v>0.01829103465495052</v>
+        <v>0.02300271101310969</v>
       </c>
       <c r="E19">
-        <v>0.1181096950196832</v>
+        <v>0.2678496728038269</v>
       </c>
       <c r="F19">
-        <v>0.8390063565943535</v>
+        <v>1.085300703797714</v>
       </c>
       <c r="G19">
-        <v>0.6874494586313062</v>
+        <v>0.9965138366269741</v>
       </c>
       <c r="H19">
-        <v>0.7188797886720124</v>
+        <v>0.5492126130820765</v>
       </c>
       <c r="I19">
-        <v>0.6283705865973417</v>
+        <v>0.79414762085284</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.397198358392927</v>
+        <v>4.468591361879589</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4783211364974278</v>
+        <v>1.4295765613073</v>
       </c>
       <c r="N19">
-        <v>1.081620003758239</v>
+        <v>0.4846715598717708</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01661964444728881</v>
+        <v>0.04781976408499133</v>
       </c>
       <c r="D20">
-        <v>0.01845603643954874</v>
+        <v>0.02343035810266514</v>
       </c>
       <c r="E20">
-        <v>0.1205766657572482</v>
+        <v>0.27934747900985</v>
       </c>
       <c r="F20">
-        <v>0.8459181950818504</v>
+        <v>1.124615741425984</v>
       </c>
       <c r="G20">
-        <v>0.6941174791745794</v>
+        <v>1.034153375227106</v>
       </c>
       <c r="H20">
-        <v>0.7201517811738682</v>
+        <v>0.5639601113813626</v>
       </c>
       <c r="I20">
-        <v>0.6332488478500053</v>
+        <v>0.8226837037905526</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.448584941052445</v>
+        <v>4.648841714126775</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4941746376054681</v>
+        <v>1.489333970318839</v>
       </c>
       <c r="N20">
-        <v>1.076562261102577</v>
+        <v>0.4720090211840393</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01840759542514547</v>
+        <v>0.05345689523023367</v>
       </c>
       <c r="D21">
-        <v>0.01900970506914135</v>
+        <v>0.02487684328864503</v>
       </c>
       <c r="E21">
-        <v>0.1289804315009349</v>
+        <v>0.3190849592071103</v>
       </c>
       <c r="F21">
-        <v>0.869914264537428</v>
+        <v>1.260894626197057</v>
       </c>
       <c r="G21">
-        <v>0.7172364026339721</v>
+        <v>1.164969920061452</v>
       </c>
       <c r="H21">
-        <v>0.7249777201820962</v>
+        <v>0.6157604543948594</v>
       </c>
       <c r="I21">
-        <v>0.6502250947505956</v>
+        <v>0.9217276964557328</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.6212594292316</v>
+        <v>5.259283397797844</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5475933022608785</v>
+        <v>1.692757200247996</v>
       </c>
       <c r="N21">
-        <v>1.060165447877914</v>
+        <v>0.4313577550629368</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.019571522251006</v>
+        <v>0.05715595622147163</v>
       </c>
       <c r="D22">
-        <v>0.01937097388215037</v>
+        <v>0.02583094972539612</v>
       </c>
       <c r="E22">
-        <v>0.1345600053021769</v>
+        <v>0.3459938371412292</v>
       </c>
       <c r="F22">
-        <v>0.8861768184587646</v>
+        <v>1.353440459552019</v>
       </c>
       <c r="G22">
-        <v>0.7328833877236605</v>
+        <v>1.25409364231254</v>
       </c>
       <c r="H22">
-        <v>0.7285447947961359</v>
+        <v>0.6514692497426893</v>
       </c>
       <c r="I22">
-        <v>0.661759447410077</v>
+        <v>0.989090925141241</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.734125813779826</v>
+        <v>5.662444459302435</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5826208568593074</v>
+        <v>1.827977683844864</v>
       </c>
       <c r="N22">
-        <v>1.049894664923542</v>
+        <v>0.4062984325017531</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01895073868854524</v>
+        <v>0.05518012952929752</v>
       </c>
       <c r="D23">
-        <v>0.01917821486014049</v>
+        <v>0.02532081701614786</v>
       </c>
       <c r="E23">
-        <v>0.1315740066919702</v>
+        <v>0.3315385136998046</v>
       </c>
       <c r="F23">
-        <v>0.8774439207829658</v>
+        <v>1.303704301885531</v>
       </c>
       <c r="G23">
-        <v>0.7244828443732558</v>
+        <v>1.206168814679273</v>
       </c>
       <c r="H23">
-        <v>0.7266030916571822</v>
+        <v>0.6322291837084322</v>
       </c>
       <c r="I23">
-        <v>0.6555629697547118</v>
+        <v>0.952878672373231</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.673885858761196</v>
+        <v>5.446844347862907</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5639153523312643</v>
+        <v>1.755579848575735</v>
       </c>
       <c r="N23">
-        <v>1.055335554800109</v>
+        <v>0.4195284343280399</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01659034472610443</v>
+        <v>0.04772783457293173</v>
       </c>
       <c r="D24">
-        <v>0.01844697788203931</v>
+        <v>0.02340684110296465</v>
       </c>
       <c r="E24">
-        <v>0.120440762263172</v>
+        <v>0.2787121849587493</v>
       </c>
       <c r="F24">
-        <v>0.8455357296955555</v>
+        <v>1.122441871488391</v>
       </c>
       <c r="G24">
-        <v>0.6937486233830725</v>
+        <v>1.032070942863243</v>
       </c>
       <c r="H24">
-        <v>0.7200798556753085</v>
+        <v>0.5631422090962701</v>
       </c>
       <c r="I24">
-        <v>0.632978759444029</v>
+        <v>0.8211053835207025</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.445762942095371</v>
+        <v>4.638926536899135</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4933034664454539</v>
+        <v>1.486043144064297</v>
       </c>
       <c r="N24">
-        <v>1.076837766302713</v>
+        <v>0.4726975016917372</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01402501266855438</v>
+        <v>0.03973384183045425</v>
       </c>
       <c r="D25">
-        <v>0.01765604955195244</v>
+        <v>0.02137034306593932</v>
       </c>
       <c r="E25">
-        <v>0.1087967959380975</v>
+        <v>0.2250509469685369</v>
       </c>
       <c r="F25">
-        <v>0.8135842302260841</v>
+        <v>0.939608230163401</v>
       </c>
       <c r="G25">
-        <v>0.6628760666404503</v>
+        <v>0.857455412789875</v>
       </c>
       <c r="H25">
-        <v>0.7148072963177015</v>
+        <v>0.4954765610119978</v>
       </c>
       <c r="I25">
-        <v>0.6104870984831479</v>
+        <v>0.6885656848612172</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.199774077250026</v>
+        <v>3.781709531025683</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4176238886613532</v>
+        <v>1.203189109441382</v>
       </c>
       <c r="N25">
-        <v>1.101938339040213</v>
+        <v>0.535915288784782</v>
       </c>
       <c r="O25">
         <v>0</v>
